--- a/data/1M/Bulgaria 1M.xlsx
+++ b/data/1M/Bulgaria 1M.xlsx
@@ -26,8 +26,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -67,12 +67,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -491,7 +494,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>42035</v>
       </c>
       <c r="B2" t="n">
@@ -517,7 +520,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>42063</v>
       </c>
       <c r="B3" t="n">
@@ -543,7 +546,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>42094</v>
       </c>
       <c r="B4" t="n">
@@ -569,7 +572,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>42124</v>
       </c>
       <c r="B5" t="n">
@@ -595,7 +598,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>42155</v>
       </c>
       <c r="B6" t="n">
@@ -621,7 +624,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>42185</v>
       </c>
       <c r="B7" t="n">
@@ -647,7 +650,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>42216</v>
       </c>
       <c r="B8" t="n">
@@ -673,7 +676,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>42247</v>
       </c>
       <c r="B9" t="n">
@@ -699,7 +702,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>42277</v>
       </c>
       <c r="B10" t="n">
@@ -725,7 +728,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>42308</v>
       </c>
       <c r="B11" t="n">
@@ -751,7 +754,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>42338</v>
       </c>
       <c r="B12" t="n">
@@ -777,7 +780,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>42369</v>
       </c>
       <c r="B13" t="n">
@@ -813,7 +816,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,7 +887,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>45322</v>
       </c>
       <c r="B2" t="n">
@@ -922,7 +925,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>45351</v>
       </c>
       <c r="B3" t="n">
@@ -960,7 +963,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45382</v>
       </c>
       <c r="B4" t="n">
@@ -998,7 +1001,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45412</v>
       </c>
       <c r="B5" t="n">
@@ -1036,7 +1039,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45443</v>
       </c>
       <c r="B6" t="n">
@@ -1074,41 +1077,79 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45473</v>
       </c>
       <c r="B7" t="n">
-        <v>12060</v>
+        <v>13879</v>
       </c>
       <c r="C7" t="n">
-        <v>316319</v>
+        <v>375713</v>
       </c>
       <c r="D7" t="n">
-        <v>106002</v>
+        <v>122291</v>
       </c>
       <c r="E7" t="n">
-        <v>30715</v>
+        <v>35240</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>125020</v>
+        <v>137282</v>
       </c>
       <c r="H7" t="n">
-        <v>215830</v>
+        <v>240773</v>
       </c>
       <c r="I7" t="n">
-        <v>736424</v>
+        <v>826761</v>
       </c>
       <c r="J7" t="n">
-        <v>520899</v>
+        <v>590688</v>
       </c>
       <c r="K7" t="n">
-        <v>1898</v>
+        <v>2209</v>
       </c>
       <c r="L7" t="n">
-        <v>48774</v>
+        <v>56053</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1473</v>
+      </c>
+      <c r="C8" t="n">
+        <v>92182</v>
+      </c>
+      <c r="D8" t="n">
+        <v>14120</v>
+      </c>
+      <c r="E8" t="n">
+        <v>4008</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>9283</v>
+      </c>
+      <c r="H8" t="n">
+        <v>18049</v>
+      </c>
+      <c r="I8" t="n">
+        <v>81987</v>
+      </c>
+      <c r="J8" t="n">
+        <v>58035</v>
+      </c>
+      <c r="K8" t="n">
+        <v>250</v>
+      </c>
+      <c r="L8" t="n">
+        <v>6151</v>
       </c>
     </row>
   </sheetData>
@@ -1193,7 +1234,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>42400</v>
       </c>
       <c r="B2" t="n">
@@ -1231,7 +1272,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>42429</v>
       </c>
       <c r="B3" t="n">
@@ -1269,7 +1310,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>42460</v>
       </c>
       <c r="B4" t="n">
@@ -1307,7 +1348,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>42490</v>
       </c>
       <c r="B5" t="n">
@@ -1345,7 +1386,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>42521</v>
       </c>
       <c r="B6" t="n">
@@ -1383,7 +1424,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>42551</v>
       </c>
       <c r="B7" t="n">
@@ -1421,7 +1462,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>42582</v>
       </c>
       <c r="B8" t="n">
@@ -1459,7 +1500,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>42613</v>
       </c>
       <c r="B9" t="n">
@@ -1497,7 +1538,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>42643</v>
       </c>
       <c r="B10" t="n">
@@ -1535,7 +1576,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>42674</v>
       </c>
       <c r="B11" t="n">
@@ -1573,7 +1614,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>42704</v>
       </c>
       <c r="B12" t="n">
@@ -1611,7 +1652,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>42735</v>
       </c>
       <c r="B13" t="n">
@@ -1730,7 +1771,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>42766</v>
       </c>
       <c r="B2" t="n">
@@ -1768,7 +1809,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>42794</v>
       </c>
       <c r="B3" t="n">
@@ -1806,7 +1847,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>42825</v>
       </c>
       <c r="B4" t="n">
@@ -1844,7 +1885,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>42855</v>
       </c>
       <c r="B5" t="n">
@@ -1882,7 +1923,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>42886</v>
       </c>
       <c r="B6" t="n">
@@ -1920,7 +1961,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>42916</v>
       </c>
       <c r="B7" t="n">
@@ -1958,7 +1999,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>42947</v>
       </c>
       <c r="B8" t="n">
@@ -1996,7 +2037,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>42978</v>
       </c>
       <c r="B9" t="n">
@@ -2034,7 +2075,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43008</v>
       </c>
       <c r="B10" t="n">
@@ -2072,7 +2113,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43039</v>
       </c>
       <c r="B11" t="n">
@@ -2110,7 +2151,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43069</v>
       </c>
       <c r="B12" t="n">
@@ -2148,7 +2189,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43100</v>
       </c>
       <c r="B13" t="n">
@@ -2267,7 +2308,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43131</v>
       </c>
       <c r="B2" t="n">
@@ -2305,7 +2346,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43159</v>
       </c>
       <c r="B3" t="n">
@@ -2343,7 +2384,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43190</v>
       </c>
       <c r="B4" t="n">
@@ -2381,7 +2422,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43220</v>
       </c>
       <c r="B5" t="n">
@@ -2419,7 +2460,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43251</v>
       </c>
       <c r="B6" t="n">
@@ -2457,7 +2498,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>43281</v>
       </c>
       <c r="B7" t="n">
@@ -2495,7 +2536,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>43312</v>
       </c>
       <c r="B8" t="n">
@@ -2533,7 +2574,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>43343</v>
       </c>
       <c r="B9" t="n">
@@ -2571,7 +2612,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43373</v>
       </c>
       <c r="B10" t="n">
@@ -2609,7 +2650,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43404</v>
       </c>
       <c r="B11" t="n">
@@ -2647,7 +2688,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43434</v>
       </c>
       <c r="B12" t="n">
@@ -2685,7 +2726,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43465</v>
       </c>
       <c r="B13" t="n">
@@ -2804,7 +2845,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43496</v>
       </c>
       <c r="B2" t="n">
@@ -2842,7 +2883,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43524</v>
       </c>
       <c r="B3" t="n">
@@ -2880,7 +2921,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43555</v>
       </c>
       <c r="B4" t="n">
@@ -2918,7 +2959,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43585</v>
       </c>
       <c r="B5" t="n">
@@ -2956,7 +2997,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43616</v>
       </c>
       <c r="B6" t="n">
@@ -2994,7 +3035,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>43646</v>
       </c>
       <c r="B7" t="n">
@@ -3032,7 +3073,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>43677</v>
       </c>
       <c r="B8" t="n">
@@ -3070,7 +3111,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>43708</v>
       </c>
       <c r="B9" t="n">
@@ -3108,7 +3149,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>43738</v>
       </c>
       <c r="B10" t="n">
@@ -3146,7 +3187,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>43769</v>
       </c>
       <c r="B11" t="n">
@@ -3184,7 +3225,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>43799</v>
       </c>
       <c r="B12" t="n">
@@ -3222,7 +3263,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>43830</v>
       </c>
       <c r="B13" t="n">
@@ -3341,7 +3382,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>43861</v>
       </c>
       <c r="B2" t="n">
@@ -3379,7 +3420,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>43890</v>
       </c>
       <c r="B3" t="n">
@@ -3417,7 +3458,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>43921</v>
       </c>
       <c r="B4" t="n">
@@ -3455,7 +3496,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>43951</v>
       </c>
       <c r="B5" t="n">
@@ -3493,7 +3534,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>43982</v>
       </c>
       <c r="B6" t="n">
@@ -3531,7 +3572,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44012</v>
       </c>
       <c r="B7" t="n">
@@ -3569,7 +3610,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44043</v>
       </c>
       <c r="B8" t="n">
@@ -3607,7 +3648,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44074</v>
       </c>
       <c r="B9" t="n">
@@ -3645,7 +3686,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44104</v>
       </c>
       <c r="B10" t="n">
@@ -3683,7 +3724,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44135</v>
       </c>
       <c r="B11" t="n">
@@ -3721,7 +3762,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44165</v>
       </c>
       <c r="B12" t="n">
@@ -3759,7 +3800,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44196</v>
       </c>
       <c r="B13" t="n">
@@ -3878,7 +3919,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44227</v>
       </c>
       <c r="B2" t="n">
@@ -3916,7 +3957,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44255</v>
       </c>
       <c r="B3" t="n">
@@ -3954,7 +3995,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44286</v>
       </c>
       <c r="B4" t="n">
@@ -3992,7 +4033,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44316</v>
       </c>
       <c r="B5" t="n">
@@ -4030,7 +4071,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44347</v>
       </c>
       <c r="B6" t="n">
@@ -4068,7 +4109,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44377</v>
       </c>
       <c r="B7" t="n">
@@ -4106,7 +4147,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44408</v>
       </c>
       <c r="B8" t="n">
@@ -4144,7 +4185,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44439</v>
       </c>
       <c r="B9" t="n">
@@ -4182,7 +4223,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44469</v>
       </c>
       <c r="B10" t="n">
@@ -4220,7 +4261,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44500</v>
       </c>
       <c r="B11" t="n">
@@ -4258,7 +4299,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44530</v>
       </c>
       <c r="B12" t="n">
@@ -4296,7 +4337,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44561</v>
       </c>
       <c r="B13" t="n">
@@ -4415,7 +4456,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44592</v>
       </c>
       <c r="B2" t="n">
@@ -4453,7 +4494,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44620</v>
       </c>
       <c r="B3" t="n">
@@ -4491,7 +4532,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>44651</v>
       </c>
       <c r="B4" t="n">
@@ -4529,7 +4570,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>44681</v>
       </c>
       <c r="B5" t="n">
@@ -4567,7 +4608,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>44712</v>
       </c>
       <c r="B6" t="n">
@@ -4605,7 +4646,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>44742</v>
       </c>
       <c r="B7" t="n">
@@ -4643,7 +4684,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>44773</v>
       </c>
       <c r="B8" t="n">
@@ -4681,7 +4722,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>44804</v>
       </c>
       <c r="B9" t="n">
@@ -4719,7 +4760,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>44834</v>
       </c>
       <c r="B10" t="n">
@@ -4757,7 +4798,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>44865</v>
       </c>
       <c r="B11" t="n">
@@ -4795,7 +4836,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>44895</v>
       </c>
       <c r="B12" t="n">
@@ -4833,7 +4874,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>44926</v>
       </c>
       <c r="B13" t="n">
@@ -4952,7 +4993,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>44957</v>
       </c>
       <c r="B2" t="n">
@@ -4990,7 +5031,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>44985</v>
       </c>
       <c r="B3" t="n">
@@ -5028,7 +5069,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>45016</v>
       </c>
       <c r="B4" t="n">
@@ -5066,7 +5107,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>45046</v>
       </c>
       <c r="B5" t="n">
@@ -5104,7 +5145,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>45077</v>
       </c>
       <c r="B6" t="n">
@@ -5142,7 +5183,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>45107</v>
       </c>
       <c r="B7" t="n">
@@ -5180,7 +5221,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>45138</v>
       </c>
       <c r="B8" t="n">
@@ -5218,7 +5259,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>45169</v>
       </c>
       <c r="B9" t="n">
@@ -5256,7 +5297,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="A10" s="3" t="n">
         <v>45199</v>
       </c>
       <c r="B10" t="n">
@@ -5294,7 +5335,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>45230</v>
       </c>
       <c r="B11" t="n">
@@ -5332,7 +5373,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="3" t="n">
         <v>45260</v>
       </c>
       <c r="B12" t="n">
@@ -5370,7 +5411,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>45291</v>
       </c>
       <c r="B13" t="n">
@@ -5645,9 +5686,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE6DFACB-109C-4A2A-9576-822D203091C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C7EA0A-9E87-4CC0-863A-614D1DFE94EF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EEC78944-D3C6-4DEF-ADC9-06A14312B383}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544AF468-A3B2-4118-9FED-1CDFC829005A}"/>
 </file>